--- a/report.xlsx
+++ b/report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-105" windowWidth="22590" windowHeight="15840"/>
+    <workbookView xWindow="3915" yWindow="-105" windowWidth="22590" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t>HRL_IRM_ReLU_AINF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>HRL_PSM_ReLU_A50</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,39 +29,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HRL_PSM_ReLU_AINF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HRL_PSM_ReLU_A500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRL_IRM_ReLU_A500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRL_PSM_ReLU_A100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRL_IRM_ReLU_A50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRL_PSM_ReLU_A50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRL_PSM_ReLU_A10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRL_PSM_ReLU_A500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRL_IRM_ReLU_A100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -562,6 +526,343 @@
   </si>
   <si>
     <t>HRL_IRM_ReLU_A500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.530 ± 0.504   
+ stoi: 0.597 ± 0.131 -&gt; 0.707 ± 0.123   
+ sdr: -4.647 ± 0.297 -&gt; 9.609 ± 5.574   
+ ssnr: -3.262 ± 3.412 -&gt; 5.801 ± 5.498  
+ magVRangeMse_mean [0.58331, 0.22198, 0.17027, 0.14549, 0.12558, 0.08457]
+ magVRangeMse_std  [0.12423, 0.10512, 0.0977, 0.09592, 0.09227, 0.06734]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.799 ± 0.434
+ stoi: 0.659 ± 0.125 -&gt; 0.756 ± 0.115
+ sdr: 0.175 ± 0.160 -&gt; 12.897 ± 4.703
+ ssnr: -1.426 ± 4.131 -&gt; 8.085 ± 5.394
+ magVRangeMse_mean [0.52451, 0.18527, 0.13434, 0.11288, 0.09676, 0.06014]
+ magVRangeMse_std  [0.12209, 0.08779, 0.07264, 0.06782, 0.06412, 0.04169]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.024 ± 0.386
+ stoi: 0.715 ± 0.120 -&gt; 0.795 ± 0.110
+ sdr: 5.117 ± 0.104 -&gt; 15.921 ± 4.023
+ ssnr: 1.274 ± 4.656 -&gt; 10.316 ± 5.248
+ magVRangeMse_mean [0.46369, 0.15307, 0.10577, 0.08836, 0.07604, 0.04579]
+ magVRangeMse_std  [0.1133, 0.07374, 0.05305, 0.04906, 0.04695, 0.03021]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.220 ± 0.343   
+ stoi: 0.764 ± 0.114 -&gt; 0.825 ± 0.105   
+ sdr: 10.098 ± 0.082 -&gt; 18.775 ± 3.447  
+ ssnr: 5.138 ± 5.398 -&gt; 12.512 ± 5.015  
+ magVRangeMse_mean [0.41169, 0.12309, 0.08216, 0.06816, 0.05968, 0.03636]
+ magVRangeMse_std  [0.10268, 0.05902, 0.03767, 0.03352, 0.03523, 0.02483]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.391 ± 0.306   
+ stoi: 0.806 ± 0.107 -&gt; 0.850 ± 0.099   
+ sdr: 15.092 ± 0.075 -&gt; 21.555 ± 2.941  
+ ssnr: 9.686 ± 5.833 -&gt; 14.693 ± 4.568  
+ magVRangeMse_mean [0.36724, 0.09505, 0.06322, 0.05309, 0.04691, 0.02974]
+ magVRangeMse_std  [0.09174, 0.04351, 0.02643, 0.02531, 0.02453, 0.01849]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.619 ± 0.450   
+ stoi: 0.597 ± 0.131 -&gt; 0.721 ± 0.119   
+ sdr: -4.647 ± 0.297 -&gt; 9.864 ± 5.386   
+ ssnr: -3.262 ± 3.412 -&gt; 6.069 ± 5.456  
+ magVRangeMse_mean [0.52979, 0.21164, 0.16481, 0.14075, 0.12132, 0.08278]
+ magVRangeMse_std  [0.11919, 0.10452, 0.0979, 0.09517, 0.08963, 0.0663]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.111 ± 0.348
+ stoi: 0.715 ± 0.120 -&gt; 0.804 ± 0.107
+ sdr: 5.117 ± 0.104 -&gt; 16.122 ± 3.950
+ ssnr: 1.274 ± 4.656 -&gt; 10.631 ± 5.357
+ magVRangeMse_mean [0.42484, 0.14518, 0.10298, 0.08662, 0.07451, 0.04522]
+ magVRangeMse_std  [0.10237, 0.07221, 0.05306, 0.05036, 0.04823, 0.03195]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.305 ± 0.319
+ stoi: 0.764 ± 0.114 -&gt; 0.832 ± 0.103   
+ sdr: 10.098 ± 0.082 -&gt; 19.016 ± 3.365  
+ ssnr: 5.138 ± 5.398 -&gt; 12.943 ± 5.136  
+ magVRangeMse_mean [0.38157, 0.11643, 0.07941, 0.06672, 0.05843, 0.03579]
+ magVRangeMse_std  [0.09403, 0.05794, 0.03759, 0.03507, 0.03657, 0.0256]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.476 ± 0.290   
+ stoi: 0.806 ± 0.107 -&gt; 0.856 ± 0.097   
+ sdr: 15.092 ± 0.075 -&gt; 21.809 ± 2.847  
+ ssnr: 9.686 ± 5.833 -&gt; 15.234 ± 4.764  
+ magVRangeMse_mean [0.34458, 0.08983, 0.06051, 0.05141, 0.04557, 0.02889]
+ magVRangeMse_std  [0.08594, 0.04288, 0.02657, 0.02666, 0.02629, 0.01882]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.633 ± 0.467   
+ stoi: 0.597 ± 0.131 -&gt; 0.726 ± 0.119   
+ sdr: -4.647 ± 0.297 -&gt; 9.219 ± 5.503   
+ ssnr: -3.262 ± 3.412 -&gt; 5.846 ± 5.480  
+ magVRangeMse_mean [0.43745, 0.21671, 0.17271, 0.15007, 0.13103, 0.09037]
+ magVRangeMse_std  [0.09364, 0.11068, 0.10294, 0.09991, 0.09559, 0.07107]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.903 ± 0.393
+ stoi: 0.659 ± 0.125 -&gt; 0.773 ± 0.112
+ sdr: 0.175 ± 0.160 -&gt; 12.535 ± 4.635
+ ssnr: -1.426 ± 4.131 -&gt; 8.054 ± 5.401
+ magVRangeMse_mean [0.3991, 0.17889, 0.1369, 0.11735, 0.10134, 0.06432]
+ magVRangeMse_std  [0.08599, 0.08952, 0.076, 0.07152, 0.06762, 0.04486]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.129 ± 0.349
+ stoi: 0.715 ± 0.120 -&gt; 0.808 ± 0.108
+ sdr: 5.117 ± 0.104 -&gt; 15.611 ± 3.920
+ ssnr: 1.274 ± 4.656 -&gt; 10.243 ± 5.270
+ magVRangeMse_mean [0.36704, 0.14649, 0.10766, 0.09263, 0.08048, 0.04886]
+ magVRangeMse_std  [0.08258, 0.07331, 0.05446, 0.05187, 0.04997, 0.03238]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.325 ± 0.314   
+ stoi: 0.764 ± 0.114 -&gt; 0.836 ± 0.103   
+ sdr: 10.098 ± 0.082 -&gt; 18.545 ± 3.281  
+ ssnr: 5.138 ± 5.398 -&gt; 12.418 ± 4.987  
+ magVRangeMse_mean [0.33739, 0.11699, 0.08406, 0.07336, 0.06526, 0.03944]
+ magVRangeMse_std  [0.08032, 0.05806, 0.03886, 0.03732, 0.03915, 0.02632]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.499 ± 0.284   
+ stoi: 0.806 ± 0.107 -&gt; 0.861 ± 0.097   
+ sdr: 15.092 ± 0.075 -&gt; 21.360 ± 2.727  
+ ssnr: 9.686 ± 5.833 -&gt; 14.478 ± 4.576  
+ magVRangeMse_mean [0.30957, 0.0902, 0.06552, 0.05966, 0.05442, 0.03325]
+ magVRangeMse_std  [0.07772, 0.04285, 0.02801, 0.03013, 0.03109, 0.02071]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE_IRM_Real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE_PSM_Real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRL_IRM_Real_A05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRL_IRM_Real_A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRL_IRM_Real_A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRL_IRM_Real_A100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRL_IRM_Real_A500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRL_PSM_Real_A05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRL_PSM_Real_A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRL_PSM_Real_A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRL_PSM_Real_A100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRL_PSM_Real_A500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.648 ± 0.452   
+ stoi: 0.597 ± 0.131 -&gt; 0.728 ± 0.119   
+ sdr: -4.647 ± 0.297 -&gt; 9.594 ± 5.131   
+ ssnr: -3.262 ± 3.412 -&gt; 5.990 ± 5.283  
+ magVRangeMse_mean [0.46143, 0.21772, 0.17353, 0.1485, 0.12746, 0.08652]
+ magVRangeMse_std  [0.10242, 0.10796, 0.10345, 0.10058, 0.09404, 0.06674]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.153 ± 0.342
+ stoi: 0.715 ± 0.120 -&gt; 0.809 ± 0.107
+ sdr: 5.117 ± 0.104 -&gt; 15.988 ± 3.806
+ ssnr: 1.274 ± 4.656 -&gt; 10.366 ± 5.155
+ magVRangeMse_mean [0.37969, 0.15005, 0.11034, 0.09402, 0.08078, 0.04877]
+ magVRangeMse_std  [0.08945, 0.07406, 0.05623, 0.05374, 0.05147, 0.03261]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.351 ± 0.309   
+ stoi: 0.764 ± 0.114 -&gt; 0.837 ± 0.103   
+ sdr: 10.098 ± 0.082 -&gt; 18.837 ± 3.264  
+ ssnr: 5.138 ± 5.398 -&gt; 12.548 ± 4.947  
+ magVRangeMse_mean [0.3466, 0.12042, 0.08551, 0.07326, 0.06433, 0.03912]
+ magVRangeMse_std  [0.08481, 0.05901, 0.0397, 0.03796, 0.03878, 0.02613]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.524 ± 0.283   
+ stoi: 0.806 ± 0.107 -&gt; 0.861 ± 0.097   
+ sdr: 15.092 ± 0.075 -&gt; 21.577 ± 2.762  
+ ssnr: 9.686 ± 5.833 -&gt; 14.701 ± 4.619  
+ magVRangeMse_mean [0.31644, 0.09301, 0.06579, 0.05779, 0.05163, 0.03233]
+ magVRangeMse_std  [0.08059, 0.04373, 0.02826, 0.02928, 0.02928, 0.01966]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.923 ± 0.386</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ stoi: 0.659 ± 0.125 -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.774 ± 0.112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ sdr: 0.175 ± 0.160 -&gt; 12.951 ± 4.395
+ ssnr: -1.426 ± 4.131 -&gt; 8.188 ± 5.269
+ magVRangeMse_mean [0.41736, 0.18195, 0.13978, 0.11829, 0.10085, 0.06317]
+ magVRangeMse_std  [0.09526, 0.08958, 0.07772, 0.07335, 0.06852, 0.04372]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.886 ± 0.386
+ stoi: 0.659 ± 0.125 -&gt; 0.769 ± 0.112
+ sdr: 0.175 ± 0.160 -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 13.121 ± 4.570</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ssnr: -1.426 ± 4.131 -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.361 ± 5.431</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ magVRangeMse_mean [0.47569, 0.17635, 0.1314, 0.11045, 0.09453, 0.05932]
+ magVRangeMse_std  [0.11159, 0.08652, 0.07345, 0.0687, 0.06478, 0.04284]
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F42"/>
+  <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -929,42 +1230,42 @@
   <sheetData>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="128.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="128.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
@@ -974,15 +1275,25 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="128.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
       <c r="B7" s="2"/>
@@ -991,15 +1302,25 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="142.5">
       <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="B9" s="2"/>
@@ -1008,15 +1329,25 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="128.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
       <c r="B11" s="2"/>
@@ -1025,15 +1356,25 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="128.25">
       <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1">
       <c r="B13" s="2"/>
@@ -1044,7 +1385,7 @@
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1059,15 +1400,25 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="128.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1">
       <c r="B17" s="2"/>
@@ -1076,15 +1427,25 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="128.25">
       <c r="A18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
       <c r="B19" s="2"/>
@@ -1093,78 +1454,80 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="128.25">
+    <row r="20" spans="1:6" ht="128.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="128.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="128.25">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="128.25">
       <c r="A24" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1175,65 +1538,32 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="128.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="128.25">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1241,9 +1571,12 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1"/>
+    </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1251,9 +1584,12 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+    </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1266,20 +1602,15 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1292,18 +1623,40 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="-105" windowWidth="22590" windowHeight="15840"/>
+    <workbookView xWindow="7935" yWindow="-105" windowWidth="22590" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>HRL_PSM_ReLU_A50</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -863,6 +863,206 @@
  magVRangeMse_std  [0.11159, 0.08652, 0.07345, 0.0687, 0.06478, 0.04284]
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.355 ± 0.455   
+ stoi: 0.597 ± 0.131 -&gt; 0.672 ± 0.121   
+ sdr: -4.647 ± 0.297 -&gt; 8.958 ± 5.531   
+ ssnr: -3.262 ± 3.412 -&gt; 4.579 ± 4.567  
+ magVRangeMse_mean [0.56311, 0.31023, 0.23184, 0.18678, 0.15389, 0.0948]
+ magVRangeMse_std  [0.09397, 0.14256, 0.13961, 0.13215, 0.12175, 0.08612]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.616 ± 0.403   
+ stoi: 0.659 ± 0.125 -&gt; 0.723 ± 0.115   
+ sdr: 0.175 ± 0.160 -&gt; 12.449 ± 4.894   
+ ssnr: -1.426 ± 4.131 -&gt; 7.161 ± 4.613  
+ magVRangeMse_mean [0.52698, 0.2625, 0.18791, 0.14766, 0.11941, 0.06367]
+ magVRangeMse_std  [0.08804, 0.11761, 0.1068, 0.09797, 0.08821, 0.05016]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 2.835 ± 0.371   
+ stoi: 0.715 ± 0.120 -&gt; 0.761 ± 0.110   
+ sdr: 5.117 ± 0.104 -&gt; 15.569 ± 4.226   
+ ssnr: 1.274 ± 4.656 -&gt; 9.553 ± 4.598   
+ magVRangeMse_mean [0.49241, 0.21385, 0.14772, 0.11529, 0.09248, 0.04482]
+ magVRangeMse_std  [0.08208, 0.09394, 0.07876, 0.07303, 0.06606, 0.03401]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.027 ± 0.346   
+ stoi: 0.764 ± 0.114 -&gt; 0.792 ± 0.106   
+ sdr: 10.098 ± 0.082 -&gt; 18.458 ± 3.641  
+ ssnr: 5.138 ± 5.398 -&gt; 11.787 ± 4.547  
+ magVRangeMse_mean [0.45615, 0.16843, 0.11262, 0.08796, 0.07128, 0.03301]
+ magVRangeMse_std  [0.07604, 0.07185, 0.05646, 0.05447, 0.05132, 0.02708]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.193 ± 0.325
+ stoi: 0.806 ± 0.107 -&gt; 0.819 ± 0.100
+ sdr: 15.092 ± 0.075 -&gt; 21.279 ± 3.095
+ ssnr: 9.686 ± 5.833 -&gt; 13.801 ± 4.338
+ magVRangeMse_mean [0.41984, 0.1297, 0.08726, 0.07032, 0.05811, 0.02653]
+ magVRangeMse_std  [0.07002, 0.05267, 0.04348, 0.04537, 0.04436, 0.02505]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.552 ± 0.476   
+ stoi: 0.597 ± 0.131 -&gt; 0.719 ± 0.118   
+ sdr: -4.647 ± 0.297 -&gt; 8.570 ± 5.123   
+ ssnr: -3.262 ± 3.412 -&gt; 5.435 ± 5.204  
+ magVRangeMse_mean [0.41594, 0.22598, 0.18237, 0.15996, 0.14122, 0.1024]
+ magVRangeMse_std  [0.09116, 0.11122, 0.10589, 0.10423, 0.09935, 0.07718]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.835 ± 0.400
+ stoi: 0.659 ± 0.125 -&gt; 0.768 ± 0.111
+ sdr: 0.175 ± 0.160 -&gt; 12.041 ± 4.273
+ ssnr: -1.426 ± 4.131 -&gt; 7.670 ± 5.071
+ magVRangeMse_mean [0.38217, 0.18797, 0.1451, 0.12557, 0.11038, 0.07448]
+ magVRangeMse_std  [0.08444, 0.0911, 0.07903, 0.07436, 0.07076, 0.04975]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.071 ± 0.358   
+ stoi: 0.715 ± 0.120 -&gt; 0.804 ± 0.107   
+ sdr: 5.117 ± 0.104 -&gt; 15.165 ± 3.644   
+ ssnr: 1.274 ± 4.656 -&gt; 9.789 ± 4.942   
+ magVRangeMse_mean [0.35324, 0.15441, 0.1139, 0.09851, 0.08712, 0.05654]
+ magVRangeMse_std  [0.08306, 0.07455, 0.05657, 0.05323, 0.05164, 0.03584]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.273 ± 0.324   
+ stoi: 0.764 ± 0.114 -&gt; 0.832 ± 0.103   
+ sdr: 10.098 ± 0.082 -&gt; 18.087 ± 3.112  
+ ssnr: 5.138 ± 5.398 -&gt; 11.875 ± 4.705  
+ magVRangeMse_mean [0.32491, 0.12348, 0.08875, 0.07729, 0.07014, 0.04517]
+ magVRangeMse_std  [0.08192, 0.0589, 0.04011, 0.03745, 0.0397, 0.02887]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.452 ± 0.295   
+ stoi: 0.806 ± 0.107 -&gt; 0.858 ± 0.097   
+ sdr: 15.092 ± 0.075 -&gt; 20.854 ± 2.607  
+ ssnr: 9.686 ± 5.833 -&gt; 13.892 ± 4.342  
+ magVRangeMse_mean [0.29683, 0.09557, 0.06906, 0.0623, 0.05806, 0.03768]
+ magVRangeMse_std  [0.07946, 0.04364, 0.02878, 0.02925, 0.03077, 0.02318]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.411 ± 0.417   
+ stoi: 0.597 ± 0.131 -&gt; 0.687 ± 0.119   
+ sdr: -4.647 ± 0.297 -&gt; 8.724 ± 5.143   
+ ssnr: -3.262 ± 3.412 -&gt; 4.520 ± 4.736  
+ magVRangeMse_mean [0.51805, 0.23705, 0.17664, 0.14441, 0.11998, 0.07378]
+ magVRangeMse_std  [0.09227, 0.10814, 0.10467, 0.10025, 0.0936, 0.06443]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.673 ± 0.366
+ stoi: 0.659 ± 0.125 -&gt; 0.735 ± 0.113
+ sdr: 0.175 ± 0.160 -&gt; 12.277 ± 4.484
+ ssnr: -1.426 ± 4.131 -&gt; 7.241 ± 4.925
+ magVRangeMse_mean [0.48004, 0.19939, 0.14052, 0.11252, 0.09261, 0.05072]
+ magVRangeMse_std  [0.08325, 0.08786, 0.07676, 0.07076, 0.06508, 0.03835]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 2.885 ± 0.343
+ stoi: 0.715 ± 0.120 -&gt; 0.771 ± 0.109
+ sdr: 5.117 ± 0.104 -&gt; 15.374 ± 3.945
+ ssnr: 1.274 ± 4.656 -&gt; 9.802 ± 5.055
+ magVRangeMse_mean [0.44608, 0.1651, 0.10936, 0.08607, 0.07064, 0.03624]
+ magVRangeMse_std  [0.0753, 0.0729, 0.05583, 0.05001, 0.04645, 0.02585]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.068 ± 0.325   
+ stoi: 0.764 ± 0.114 -&gt; 0.801 ± 0.104   
+ sdr: 10.098 ± 0.082 -&gt; 18.355 ± 3.424  
+ ssnr: 5.138 ± 5.398 -&gt; 12.330 ± 4.912  
+ magVRangeMse_mean [0.4163, 0.13299, 0.08346, 0.06442, 0.05326, 0.02646]
+ magVRangeMse_std  [0.06922, 0.05788, 0.0398, 0.03537, 0.03567, 0.02234]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.233 ± 0.312   
+ stoi: 0.806 ± 0.107 -&gt; 0.826 ± 0.099   
+ sdr: 15.092 ± 0.075 -&gt; 21.365 ± 2.927  
+ ssnr: 9.686 ± 5.833 -&gt; 14.794 ± 4.529  
+ magVRangeMse_mean [0.38893, 0.10368, 0.06273, 0.04845, 0.04002, 0.01989]
+ magVRangeMse_std  [0.06516, 0.04295, 0.02874, 0.0272, 0.02595, 0.01684]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.599 ± 0.438   
+ stoi: 0.597 ± 0.131 -&gt; 0.716 ± 0.118   
+ sdr: -4.647 ± 0.297 -&gt; 9.484 ± 5.304   
+ ssnr: -3.262 ± 3.412 -&gt; 5.780 ± 5.315  
+ magVRangeMse_mean [0.45942, 0.20448, 0.15765, 0.13402, 0.11497, 0.07648]
+ magVRangeMse_std  [0.08321, 0.10243, 0.09525, 0.0928, 0.08779, 0.06399]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.863 ± 0.380
+ stoi: 0.659 ± 0.125 -&gt; 0.763 ± 0.112
+ sdr: 0.175 ± 0.160 -&gt; 12.896 ± 4.508
+ ssnr: -1.426 ± 4.131 -&gt; 8.196 ± 5.427
+ magVRangeMse_mean [0.42267, 0.17244, 0.12691, 0.10633, 0.09038, 0.05509]
+ magVRangeMse_std  [0.07773, 0.08592, 0.07248, 0.06755, 0.06355, 0.04213]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.081 ± 0.347
+ stoi: 0.715 ± 0.120 -&gt; 0.800 ± 0.107
+ sdr: 5.117 ± 0.104 -&gt; 16.032 ± 3.948
+ ssnr: 1.274 ± 4.656 -&gt; 10.577 ± 5.454
+ magVRangeMse_mean [0.39179, 0.14242, 0.09961, 0.08352, 0.07127, 0.04149]
+ magVRangeMse_std  [0.07519, 0.07217, 0.05301, 0.04963, 0.04745, 0.03125]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.266 ± 0.321
+ stoi: 0.764 ± 0.114 -&gt; 0.829 ± 0.103
+ sdr: 10.098 ± 0.082 -&gt; 19.008 ± 3.479  
+ ssnr: 5.138 ± 5.398 -&gt; 12.966 ± 5.319  
+ magVRangeMse_mean [0.36393, 0.11432, 0.07668, 0.06395, 0.05555, 0.03227]
+ magVRangeMse_std  [0.07353, 0.05786, 0.0379, 0.03479, 0.03615, 0.02512]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.433 ± 0.295   
+ stoi: 0.806 ± 0.107 -&gt; 0.853 ± 0.097   
+ sdr: 15.092 ± 0.075 -&gt; 21.930 ± 3.010  
+ ssnr: 9.686 ± 5.833 -&gt; 15.337 ± 4.954  
+ magVRangeMse_mean [0.33783, 0.08804, 0.0583, 0.04901, 0.04288, 0.02568]
+ magVRangeMse_std  [0.07101, 0.04281, 0.0268, 0.02642, 0.02582, 0.01853]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1383,15 +1583,25 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="128.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1">
       <c r="B15" s="2"/>
@@ -1538,38 +1748,68 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="128.25">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="B26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="128.25">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="128.25">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_500106EF16C4289E453F56EFBA63E99A95F63FA9" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A6DA8682-E0D2-47E7-89B9-2CF3E0DE1F0D}"/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="-105" windowWidth="22590" windowHeight="15840"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22680" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>HRL_PSM_ReLU_A50</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1065,12 +1066,259 @@
  magVRangeMse_std  [0.07101, 0.04281, 0.0268, 0.02642, 0.02582, 0.01853]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.630 ± 0.431
+ stoi: 0.597 ± 0.131 -&gt; 0.722 ± 0.116
+ sdr: -4.647 ± 0.297 -&gt; 9.679 ± 5.289                                                                                                                  ssnr: -3.262 ± 3.412 -&gt; 5.902 ± 5.210
+ magVRangeMse_mean [0.44848, 0.20911, 0.1648, 0.14076, 0.12104, 0.08187]
+ magVRangeMse_std  [0.08454, 0.10312, 0.09717, 0.09448, 0.08914, 0.06391]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.897 ± 0.371
+ stoi: 0.659 ± 0.125 -&gt; 0.769 ± 0.110
+ sdr: 0.175 ± 0.160 -&gt; 13.013 ± 4.490
+ ssnr: -1.426 ± 4.131 -&gt; 8.237 ± 5.244
+ magVRangeMse_mean [0.41305, 0.17542, 0.13327, 0.11206, 0.09542, 0.05904]
+ magVRangeMse_std  [0.07828, 0.08699, 0.07406, 0.06937, 0.06457, 0.0406]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.115 ± 0.339
+ stoi: 0.715 ± 0.120 -&gt; 0.804 ± 0.106
+ sdr: 5.117 ± 0.104 -&gt; 16.067 ± 3.870
+ ssnr: 1.274 ± 4.656 -&gt; 10.548 ± 5.235
+ magVRangeMse_mean [0.38378, 0.14443, 0.10491, 0.08884, 0.07591, 0.04497]
+ magVRangeMse_std  [0.07653, 0.0731, 0.05455, 0.05182, 0.04918, 0.02961]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.300 ± 0.318
+ stoi: 0.764 ± 0.114 -&gt; 0.832 ± 0.102
+ sdr: 10.098 ± 0.082 -&gt; 19.004 ± 3.337
+ ssnr: 5.138 ± 5.398 -&gt; 12.903 ± 5.090
+ magVRangeMse_mean [0.35716, 0.11511, 0.08046, 0.06864, 0.05995, 0.0356]
+ magVRangeMse_std  [0.07369, 0.05842, 0.03912, 0.03784, 0.0387, 0.02443]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.465 ± 0.291
+ stoi: 0.806 ± 0.107 -&gt; 0.856  0.097
+ sdr: 15.092 ± 0.075 -&gt; 21.852  2.871
+ ssnr: 9.686 ± 5.833 -&gt; 15.204 ± 4.765
+ magVRangeMse_mean [0.33256, 0.08811, 0.06087, 0.05305, 0.04725, 0.02908]
+ magVRangeMse_std  [0.06959, 0.04294, 0.02779, 0.02979, 0.03012, 0.01941]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.617 ± 0.443
+ stoi: 0.597 ± 0.131 -&gt; 0.720 ± 0.118
+ sdr: -4.647 ± 0.297 -&gt; 9.155 ± 5.412                                                                                                                  ssnr: -3.262 ± 3.412 -&gt; 5.646 ± 5.295
+ magVRangeMse_mean [0.43321, 0.22632, 0.17943, 0.15503, 0.13478, 0.09337]
+ magVRangeMse_std  [0.08025, 0.11329, 0.10509, 0.10244, 0.09721, 0.07262]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.889 ± 0.379
+ stoi: 0.659 ± 0.125 -&gt; 0.768 ± 0.111
+ sdr: 0.175 ± 0.160 -&gt; 12.534 ± 4.602
+ ssnr: -1.426 ± 4.131 -&gt; 7.898 ± 5.256
+ magVRangeMse_mean [0.40226, 0.18692, 0.14248, 0.12199, 0.1052, 0.06689]
+ magVRangeMse_std  [0.07752, 0.09264, 0.07793, 0.07341, 0.06964, 0.04622]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.115 ± 0.338
+ stoi: 0.715 ± 0.120 -&gt; 0.804 ± 0.107
+ sdr: 5.117 ± 0.104 -&gt; 15.624 ± 3.903
+ ssnr: 1.274 ± 4.656 -&gt; 10.059 ± 5.145
+ magVRangeMse_mean [0.37394, 0.15313, 0.11185, 0.09665, 0.08409, 0.05113]
+ magVRangeMse_std  [0.07663, 0.07598, 0.05595, 0.05299, 0.05106, 0.03319]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.306 ± 0.309
+ stoi: 0.764 ± 0.114 -&gt; 0.833 ± 0.102
+ sdr: 10.098 ± 0.082 -&gt; 18.490 ± 3.303
+ ssnr: 5.138 ± 5.398 -&gt; 12.124 ± 4.898
+ magVRangeMse_mean [0.34662, 0.12217, 0.08716, 0.0768, 0.06866, 0.0414]
+ magVRangeMse_std  [0.07576, 0.0601, 0.03939, 0.03773, 0.03917, 0.02684]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.474 ± 0.285
+ stoi: 0.806 ± 0.107 -&gt; 0.857 ± 0.097
+ sdr: 15.092 ± 0.075 -&gt; 21.260 ± 2.755
+ ssnr: 9.686 ± 5.833 -&gt; 14.111 ± 4.484
+ magVRangeMse_mean [0.32032, 0.09401, 0.06805, 0.06303, 0.05803, 0.03523]
+ magVRangeMse_std  [0.0737, 0.04424, 0.02805, 0.0304, 0.03192, 0.02156]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.618 ± 0.450
+ stoi: 0.597 ± 0.131 -&gt; 0.725 ± 0.117
+ sdr: -4.647 ± 0.297 -&gt; 9.118 ± 5.234
+ ssnr: -3.262 ± 3.412 -&gt; 5.583 ± 4.979
+ magVRangeMse_mean [0.42084, 0.21443, 0.17303, 0.15105, 0.13198, 0.09239]
+ magVRangeMse_std  [0.08326, 0.10736, 0.10161, 0.10077, 0.0961, 0.07291]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.889 ± 0.384
+ stoi: 0.659 ± 0.125 -&gt; 0.772 ± 0.111
+ sdr: 0.175 ± 0.160 -&gt; 12.479 ± 4.370
+ ssnr: -1.426 ± 4.131 -&gt; 7.852 ± 4.999
+ magVRangeMse_mean [0.38964, 0.17803, 0.13742, 0.11877, 0.10332, 0.06706]
+ magVRangeMse_std  [0.07726, 0.08722, 0.07449, 0.07107, 0.06813, 0.04628]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.115 ± 0.348
+ stoi: 0.715 ± 0.120 -&gt; 0.807 ± 0.107
+ sdr: 5.117 ± 0.104 -&gt; 15.523 ± 3.735
+ ssnr: 1.274 ± 4.656 -&gt; 10.024 ± 4.940
+ magVRangeMse_mean [0.36235, 0.14688, 0.10827, 0.09417, 0.08261, 0.05164]
+ magVRangeMse_std  [0.07604, 0.07215, 0.05354, 0.05167, 0.0502, 0.03387]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.311  0.321
+ stoi: 0.764 ± 0.114 -&gt; 0.835 ± 0.103
+ sdr: 10.098 ± 0.082 -&gt; 18.368 ± 3.148
+ ssnr: 5.138 ± 5.398 -&gt; 12.137 ± 4.760
+ magVRangeMse_mean [0.3364, 0.11832, 0.08476, 0.07453, 0.06715, 0.04182]
+ magVRangeMse_std  [0.07494, 0.0576, 0.03834, 0.03693, 0.03931, 0.02738]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.486 ± 0.295
+ stoi: 0.806 ± 0.107 -&gt; 0.859 ± 0.097
+ sdr: 15.092 ± 0.075 -&gt; 21.125 ± 2.624
+ ssnr: 9.686 ± 5.833 -&gt; 14.171 ± 4.410
+ magVRangeMse_mean [0.31021, 0.09166, 0.06613, 0.06032, 0.05585, 0.03529]
+ magVRangeMse_std  [0.07272, 0.04283, 0.02789, 0.02973, 0.031, 0.02173]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.575 ± 0.497
+ stoi: 0.597 ± 0.131 -&gt; 0.700 ± 0.120
+ sdr: -4.647 ± 0.297 -&gt; 10.235 ± 5.732                                                                                                                 ssnr: -3.262 ± 3.412 -&gt; 6.169 ± 4.839
+ magVRangeMse_mean [0.53202, 0.30855, 0.2346, 0.19164, 0.16007, 0.10163]
+ magVRangeMse_std  [0.09164, 0.15767, 0.14736, 0.13687, 0.12519, 0.08636]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.076 ± 0.399
+ stoi: 0.715 ± 0.120 -&gt; 0.788 ± 0.109
+ sdr: 5.117 ± 0.104 -&gt; 16.453 ± 4.189
+ ssnr: 1.274 ± 4.656 -&gt; 10.560 ± 4.961
+ magVRangeMse_mean [0.46115, 0.20524, 0.1441, 0.1136, 0.09235, 0.04958]
+ magVRangeMse_std  [0.09116, 0.10628, 0.08312, 0.07487, 0.06661, 0.03686]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.847 ± 0.439
+ stoi: 0.659 ± 0.125 -&gt; 0.749 ± 0.113
+ sdr: 0.175 ± 0.160 -&gt; 13.452 ± 4.845
+ ssnr: -1.426 ± 4.131 -&gt; 8.363 ± 4.914
+ magVRangeMse_mean [0.49857, 0.25612, 0.18724, 0.14869, 0.12183, 0.06937]
+ magVRangeMse_std  [0.09173, 0.13187, 0.11367, 0.10139, 0.09055, 0.05341]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.274 ± 0.360
+ stoi: 0.764 ± 0.114 -&gt; 0.820 ± 0.104
+ sdr: 10.098 ± 0.082 -&gt; 19.358 ± 3.605
+ ssnr: 5.138 ± 5.398 -&gt; 12.783 ± 4.885
+ magVRangeMse_mean [0.42311, 0.15763, 0.10694, 0.08454, 0.06965, 0.03708]
+ magVRangeMse_std  [0.0881, 0.08097, 0.05843, 0.05426, 0.05092, 0.02802]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.448 ± 0.317
+ stoi: 0.806 ± 0.107 -&gt; 0.847 ± 0.098
+ sdr: 15.092 ± 0.075 -&gt; 22.118 ± 3.058
+ ssnr: 9.686 ± 5.833 -&gt; 14.888 ± 4.621
+ magVRangeMse_mean [0.38688, 0.11678, 0.07858, 0.06345, 0.05301, 0.02905]
+ magVRangeMse_std  [0.08239, 0.05727, 0.04154, 0.04132, 0.03831, 0.02149]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.608 ± 0.470
+ stoi: 0.597 ± 0.131 -&gt; 0.703 ± 0.121
+ sdr: -4.647 ± 0.297 -&gt; 10.195 ± 5.628
+ ssnr: -3.262 ± 3.412 -&gt; 6.424 ± 5.100
+ magVRangeMse_mean [0.53553, 0.29667, 0.22216, 0.18159, 0.15263, 0.09927]
+ magVRangeMse_std  [0.09137, 0.15081, 0.13804, 0.12857, 0.11923, 0.08431]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.883 ± 0.405
+ stoi: 0.659 ± 0.125 -&gt; 0.752 ± 0.114
+ sdr: 0.175 ± 0.160 -&gt; 13.468 ± 4.769
+ ssnr: -1.426 ± 4.131 -&gt; 8.601 ± 5.219
+ magVRangeMse_mean [0.50835, 0.24603, 0.17742, 0.14101, 0.11639, 0.06859]
+ magVRangeMse_std  [0.09439, 0.12642, 0.10588, 0.09381, 0.08386, 0.05044]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.111 ± 0.370
+ stoi: 0.715 ± 0.120 -&gt; 0.790 ± 0.110
+ sdr: 5.117 ± 0.104 -&gt; 16.472 ± 4.089
+ ssnr: 1.274 ± 4.656 -&gt; 10.837 ± 5.272
+ magVRangeMse_mean [0.47357, 0.19723, 0.13619, 0.10792, 0.08877, 0.04998]
+ magVRangeMse_std  [0.09685, 0.10228, 0.07699, 0.06869, 0.06147, 0.03464]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.311 ± 0.339
+ stoi: 0.764 ± 0.114 -&gt; 0.822 ± 0.105
+ sdr: 10.098 ± 0.082 -&gt; 19.308 ± 3.507
+ ssnr: 5.138 ± 5.398 -&gt; 13.095 ± 5.150
+ magVRangeMse_mean [0.43478, 0.152, 0.10041, 0.0796, 0.06665, 0.03782]
+ magVRangeMse_std  [0.0954, 0.07838, 0.05357, 0.04824, 0.04585, 0.02712]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.486  0.306
+ stoi: 0.806 ± 0.107 -&gt; 0.850  0.098
+ sdr: 15.092 ± 0.075 -&gt; 22.038 ± 2.967
+ ssnr: 9.686 ± 5.833 -&gt; 15.307 ± 4.834
+ magVRangeMse_mean [0.39626, 0.11242, 0.07309, 0.05883, 0.05003, 0.02964]
+ magVRangeMse_std  [0.09005, 0.05559, 0.0374, 0.03544, 0.03275, 0.0208]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1411,24 +1659,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="38.75" customWidth="1"/>
-    <col min="4" max="4" width="36.625" customWidth="1"/>
-    <col min="5" max="5" width="35.375" customWidth="1"/>
-    <col min="6" max="6" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.640625" customWidth="1"/>
+    <col min="5" max="5" width="35.35546875" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="128.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1448,7 +1696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="128.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1468,14 +1716,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="128.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1495,14 +1743,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="142.5">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="141.44999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1522,14 +1770,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="128.25">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1549,14 +1797,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="128.25">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1576,14 +1824,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="128.25">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1603,14 +1851,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1">
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="128.25">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1630,14 +1878,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="128.25">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1657,14 +1905,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="128.25">
+    <row r="20" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1692,7 +1940,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="128.25">
+    <row r="22" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1712,7 +1960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1720,7 +1968,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="128.25">
+    <row r="24" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1740,7 +1988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1748,7 +1996,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="128.25">
+    <row r="26" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -1768,7 +2016,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="128.25">
+    <row r="28" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -1788,10 +2036,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="128.25">
+    <row r="30" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -1811,44 +2059,79 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="B32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="B34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="B36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
@@ -1858,42 +2141,72 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="B40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="B42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>

--- a/report.xlsx
+++ b/report.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_500106EF16C4289E453F56EFBA63E99A95F63FA9" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A6DA8682-E0D2-47E7-89B9-2CF3E0DE1F0D}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_500106EF16C4289E453F56EFBA63E99A95F63FA9" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{107B0619-2F72-4F59-8D33-2E9D5B4E6794}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22680" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22594" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>HRL_PSM_ReLU_A50</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1311,6 +1311,156 @@
  ssnr: 9.686 ± 5.833 -&gt; 15.307 ± 4.834
  magVRangeMse_mean [0.39626, 0.11242, 0.07309, 0.05883, 0.05003, 0.02964]
  magVRangeMse_std  [0.09005, 0.05559, 0.0374, 0.03544, 0.03275, 0.0208]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.588 ± 0.468
+ stoi: 0.597 ± 0.131 -&gt; 0.724 ± 0.117
+ sdr: -4.647 ± 0.297 -&gt; 8.856 ± 5.132
+ ssnr: -3.262 ± 3.412 -&gt; 5.432 ± 4.858
+ magVRangeMse_mean [0.40398, 0.21835, 0.17638, 0.15407, 0.13543, 0.09704]
+ magVRangeMse_std  [0.08237, 0.10802, 0.10256, 0.10097, 0.09737, 0.07455]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.862 ± 0.398
+ stoi: 0.659 ± 0.125 -&gt; 0.772 ± 0.111
+ sdr: 0.175 ± 0.160 -&gt; 12.251 ± 4.341
+ ssnr: -1.426 ± 4.131 -&gt; 7.636 ± 4.797
+ magVRangeMse_mean [0.37442, 0.18005, 0.14004, 0.12114, 0.10576, 0.07018]
+ magVRangeMse_std  [0.08022, 0.0872, 0.07512, 0.07082, 0.06747, 0.04507]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.086 ± 0.356
+ stoi: 0.715 ± 0.120 -&gt; 0.807 ± 0.107
+ sdr: 5.117 ± 0.104 -&gt; 15.303 ± 3.664
+ ssnr: 1.274 ± 4.656 -&gt; 9.726 ± 4.703
+ magVRangeMse_mean [0.34723, 0.14719, 0.11015, 0.09605, 0.08476, 0.05406]
+ magVRangeMse_std  [0.08004, 0.07106, 0.05403, 0.05133, 0.05012, 0.03304]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.282 ± 0.323
+ stoi: 0.764 ± 0.114 -&gt; 0.836 ± 0.103
+ sdr: 10.098 ± 0.082 -&gt; 18.160 ± 3.050
+ ssnr: 5.138 ± 5.398 -&gt; 11.768  4.493
+ magVRangeMse_mean [0.31977, 0.1173, 0.08593, 0.07603, 0.06909, 0.04384]
+ magVRangeMse_std  [0.07935, 0.05608, 0.03828, 0.03697, 0.03846, 0.02659]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.458  0.295
+ stoi: 0.806 ± 0.107 -&gt; 0.861 ± 0.097
+ sdr: 15.092 ± 0.075 -&gt; 20.909  2.522
+ ssnr: 9.686 ± 5.833 -&gt; 13.749  4.147
+ magVRangeMse_mean [0.29157, 0.09024, 0.067, 0.06184, 0.05787, 0.03698]
+ magVRangeMse_std  [0.07717, 0.04133, 0.02796, 0.02979, 0.03157, 0.0213]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.591 ± 0.481
+ stoi: 0.597 ± 0.131 -&gt; 0.707 ± 0.120
+ sdr: -4.647 ± 0.297 -&gt; 9.711 ± 5.392
+ ssnr: -3.262 ± 3.412 -&gt; 6.322 ± 4.993
+ magVRangeMse_mean [0.52384, 0.29153, 0.2169, 0.17984, 0.15339, 0.10423]
+ magVRangeMse_std  [0.09425, 0.15186, 0.13331, 0.12388, 0.11492, 0.08533]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.880 ± 0.404
+ stoi: 0.659 ± 0.125 -&gt; 0.757 ± 0.112
+ sdr: 0.175 ± 0.160 -&gt; 13.028 ± 4.631
+ ssnr: -1.426 ± 4.131 -&gt; 8.497 ± 5.112
+ magVRangeMse_mean [0.4953, 0.23959, 0.17057, 0.13826, 0.11629, 0.07228]
+ magVRangeMse_std  [0.0945, 0.1254, 0.09979, 0.0887, 0.07997, 0.05047]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.123 ± 0.363
+ stoi: 0.715 ± 0.120 -&gt; 0.797 ± 0.108
+ sdr: 5.117 ± 0.104 -&gt; 16.028 ± 3.925
+ ssnr: 1.274 ± 4.656 -&gt; 10.676 ± 5.140
+ magVRangeMse_mean [0.46244, 0.19256, 0.13097, 0.10589, 0.08918, 0.05357]
+ magVRangeMse_std  [0.09433, 0.10205, 0.07209, 0.06416, 0.05832, 0.03546]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.329 ± 0.332
+ stoi: 0.764 ± 0.114 -&gt; 0.828 ± 0.103
+ sdr: 10.098 ± 0.082 -&gt; 18.818 ± 3.285
+ ssnr: 5.138 ± 5.398 -&gt; 12.863 ± 5.035
+ magVRangeMse_mean [0.42732, 0.15005, 0.09827, 0.07947, 0.06827, 0.04177]
+ magVRangeMse_std  [0.09342, 0.07984, 0.05069, 0.04448, 0.04332, 0.02781]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.508 ± 0.304
+ stoi: 0.806 ± 0.107 -&gt; 0.855 ± 0.097
+ sdr: 15.092 ± 0.075 -&gt; 21.505 ± 2.746
+ ssnr: 9.686 ± 5.833 -&gt; 15.019 ± 4.787
+ magVRangeMse_mean [0.39075, 0.11198, 0.07282, 0.05996, 0.05236, 0.03362]
+ magVRangeMse_std  [0.09154, 0.05788, 0.03579, 0.03269, 0.03039, 0.02084]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.578 ± 0.502
+ stoi: 0.597 ± 0.131 -&gt; 0.709 ± 0.121
+ sdr: -4.647 ± 0.297 -&gt; 9.497 ± 5.343
+ ssnr: -3.262 ± 3.412 -&gt; 6.174 ± 4.987
+ magVRangeMse_mean [0.54209, 0.27898, 0.20473, 0.16991, 0.1451, 0.09961]
+ magVRangeMse_std  [0.10566, 0.14282, 0.1224, 0.11344, 0.10519, 0.07751]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.873 ± 0.428
+ stoi: 0.659 ± 0.125 -&gt; 0.761 ± 0.113
+ sdr: 0.175 ± 0.160 -&gt; 12.859 ± 4.436
+ ssnr: -1.426 ± 4.131 -&gt; 8.354 ± 5.058
+ magVRangeMse_mean [0.5075, 0.231, 0.16256, 0.13246, 0.11218, 0.07168]
+ magVRangeMse_std  [0.10443, 0.11846, 0.09253, 0.08194, 0.07517, 0.04973]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.127 ± 0.377
+ stoi: 0.715 ± 0.120 -&gt; 0.800 ± 0.108
+ sdr: 5.117 ± 0.104 -&gt; 15.908 ± 3.731
+ ssnr: 1.274 ± 4.656 -&gt; 10.526 ± 5.053
+ magVRangeMse_mean [0.46859, 0.18677, 0.12558, 0.10183, 0.08658, 0.0537]
+ magVRangeMse_std  [0.1027, 0.09762, 0.0669, 0.05863, 0.05378, 0.0351]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.346 ± 0.336
+ stoi: 0.764 ± 0.114 -&gt; 0.831 ± 0.104
+ sdr: 10.098 ± 0.082 -&gt; 18.759 ± 3.172
+ ssnr: 5.138 ± 5.398 -&gt; 12.687 ± 4.927
+ magVRangeMse_mean [0.42857, 0.14564, 0.09483, 0.0769, 0.06659, 0.04195]
+ magVRangeMse_std  [0.0998, 0.07643, 0.04708, 0.04039, 0.03952, 0.02708]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.532 ± 0.300
+ stoi: 0.806 ± 0.107 -&gt; 0.857 ± 0.098
+ sdr: 15.092 ± 0.075 -&gt; 21.509 ± 2.681
+ ssnr: 9.686 ± 5.833 -&gt; 14.802 ± 4.644
+ magVRangeMse_mean [0.38861, 0.10858, 0.07067, 0.0587, 0.05175, 0.03393]
+ magVRangeMse_std  [0.09649, 0.05502, 0.03314, 0.03039, 0.02875, 0.0202]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1662,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2131,15 +2281,25 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
@@ -2190,17 +2350,47 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="B44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">

--- a/report.xlsx
+++ b/report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_500106EF16C4289E453F56EFBA63E99A95F63FA9" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{107B0619-2F72-4F59-8D33-2E9D5B4E6794}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_500106EF16C4289E453F56EFBA63E99A95F63FA9" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1F106FF4-51B4-48CF-AC75-7CBD85E7F4C8}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22594" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>HRL_PSM_ReLU_A50</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1461,6 +1461,56 @@
  ssnr: 9.686 ± 5.833 -&gt; 14.802 ± 4.644
  magVRangeMse_mean [0.38861, 0.10858, 0.07067, 0.0587, 0.05175, 0.03393]
  magVRangeMse_std  [0.09649, 0.05502, 0.03314, 0.03039, 0.02875, 0.0202]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.475 ± 0.513
+ stoi: 0.597 ± 0.131 -&gt; 0.707 ± 0.121
+ sdr: -4.647 ± 0.297 -&gt; 8.669 ± 5.195
+ ssnr: -3.262 ± 3.412 -&gt; 5.704 ± 4.973
+ magVRangeMse_mean [0.53028, 0.25864, 0.19718, 0.16768, 0.14586, 0.10408]
+ magVRangeMse_std  [0.10598, 0.12971, 0.11626, 0.11117, 0.10508, 0.08133]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.781 ± 0.436
+ stoi: 0.659 ± 0.125 -&gt; 0.759 ± 0.112
+ sdr: 0.175 ± 0.160 -&gt; 12.161 ± 4.384
+ ssnr: -1.426 ± 4.131 -&gt; 7.973 ± 5.030
+ magVRangeMse_mean [0.49695, 0.21488, 0.15784, 0.13231, 0.11425, 0.07526]
+ magVRangeMse_std  [0.10691, 0.10685, 0.08828, 0.081, 0.07553, 0.05141]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.043 ± 0.385
+ stoi: 0.715 ± 0.120 -&gt; 0.798 ± 0.108
+ sdr: 5.117 ± 0.104 -&gt; 15.352 ± 3.698
+ ssnr: 1.274 ± 4.656 -&gt; 10.160 ± 4.964
+ magVRangeMse_mean [0.46058, 0.17564, 0.12435, 0.10409, 0.09033, 0.05692]
+ magVRangeMse_std  [0.10769, 0.08832, 0.06531, 0.05991, 0.05614, 0.03649]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.267 ± 0.347
+ stoi: 0.764 ± 0.114 -&gt; 0.829 ± 0.104
+ sdr: 10.098 ± 0.082 -&gt; 18.299 ± 3.083
+ ssnr: 5.138 ± 5.398 -&gt; 12.299 ± 4.784
+ magVRangeMse_mean [0.4236, 0.13918, 0.09592, 0.08049, 0.07137, 0.04521]
+ magVRangeMse_std  [0.10814, 0.07023, 0.047, 0.04255, 0.04285, 0.02848]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.457 ± 0.314
+ stoi: 0.806 ± 0.107 -&gt; 0.854 ± 0.098
+ sdr: 15.092 ± 0.075 -&gt; 21.045 ± 2.561
+ ssnr: 9.686 ± 5.833 -&gt; 14.337 ± 4.513
+ magVRangeMse_mean [0.38576, 0.10598, 0.07309, 0.06279, 0.05677, 0.03739]
+ magVRangeMse_std  [0.10758, 0.05192, 0.03416, 0.03279, 0.03208, 0.02206]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1812,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2396,9 +2446,24 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="127.3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF54866-585C-4DFA-8672-100FAAD14F20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="-16650" windowWidth="26070" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="208">
   <si>
     <t>HRL_PSM_ReLU_A100</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,13 +594,6 @@
  stoi: 0.806 ± 0.107 -&gt; 0.861 ± 0.097
  sdr: 15.092 ± 0.075 -&gt; 20.909 ± 2.522
  ssnr: 9.686 ± 5.833 -&gt; 13.749 ± 4.147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(-5) test result &gt;
- pesq: 1.751 ± 0.511 -&gt; 2.575 ± 0.497
- stoi: 0.597 ± 0.131 -&gt; 0.700 ± 0.120
- sdr: -4.647 ± 0.297 -&gt; 10.235 ± 5.732                                                                                                                 ssnr: -3.262 ± 3.412 -&gt; 6.169 ± 4.839</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1163,6 +1155,420 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.068 ± 0.325   
+ stoi: 0.764 ± 0.114 -&gt; 0.801 ± 0.104   
+ sdr: 10.098 ± 0.082 -&gt; 18.355 ± 3.424  
+ ssnr: 5.138 ± 5.398 -&gt; 12.330 ± 4.912  
+ RMAERS_noisy_mean   
+ [0.138, 0.025, 0.012, 0.009, 0.007, 0.004]
+ RMAERS_enhanced_mean
+ [0.057, 0.032, 0.015, 0.011, 0.009, 0.005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.233 ± 0.312   
+ stoi: 0.806 ± 0.107 -&gt; 0.826 ± 0.099   
+ sdr: 15.092 ± 0.075 -&gt; 21.365 ± 2.927  
+ ssnr: 9.686 ± 5.833 -&gt; 14.794 ± 4.529  
+ RMAERS_noisy_mean   
+ [0.094, 0.014, 0.007, 0.005, 0.004, 0.002]
+ RMAERS_enhanced_mean
+ [0.045, 0.022, 0.011, 0.009, 0.007, 0.004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.616 ± 0.403   
+ stoi: 0.659 ± 0.125 -&gt; 0.723 ± 0.115   
+ sdr: 0.175 ± 0.160 -&gt; 12.449 ± 4.894   
+ ssnr: -1.426 ± 4.131 -&gt; 7.161 ± 4.613  
+ RMAERS_noisy_mean   
+ [0.25, 0.112, 0.092, 0.085, 0.082, 0.077]
+ RMAERS_enhanced_mean
+ [0.09, 0.099, 0.052, 0.039, 0.03, 0.021]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 2.835 ± 0.371   
+ stoi: 0.715 ± 0.120 -&gt; 0.761 ± 0.110   
+ sdr: 5.117 ± 0.104 -&gt; 15.569 ± 4.226   
+ ssnr: 1.274 ± 4.656 -&gt; 9.553 ± 4.598   
+ RMAERS_noisy_mean   
+ [0.193, 0.048, 0.03, 0.024, 0.021, 0.017]
+ RMAERS_enhanced_mean
+ [0.073, 0.061, 0.029, 0.022, 0.017, 0.01]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.027 ± 0.346   
+ stoi: 0.764 ± 0.114 -&gt; 0.792 ± 0.106   
+ sdr: 10.098 ± 0.082 -&gt; 18.458 ± 3.641  
+ ssnr: 5.138 ± 5.398 -&gt; 11.787 ± 4.547  
+ RMAERS_noisy_mean   
+ [0.138, 0.025, 0.012, 0.009, 0.007, 0.004]
+ RMAERS_enhanced_mean
+ [0.059, 0.041, 0.019, 0.014, 0.011, 0.006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.193 ± 0.325
+ stoi: 0.806 ± 0.107 -&gt; 0.819 ± 0.100
+ sdr: 15.092 ± 0.075 -&gt; 21.279 ± 3.095
+ ssnr: 9.686 ± 5.833 -&gt; 13.801 ± 4.338
+ RMAERS_noisy_mean   
+ [0.094, 0.014, 0.007, 0.005, 0.004, 0.002]
+ RMAERS_enhanced_mean
+ [0.048, 0.031, 0.014, 0.011, 0.009, 0.005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.630 ± 0.431
+ stoi: 0.597 ± 0.131 -&gt; 0.722 ± 0.116
+ sdr: -4.647 ± 0.297 -&gt; 9.679 ± 5.289                                                                                                                  ssnr: -3.262 ± 3.412 -&gt; 5.902 ± 5.210
+ RMAERS_noisy_mean   
+ [0.293, 0.236, 0.228, 0.226, 0.224, 0.222]
+ RMAERS_enhanced_mean
+ [0.091, 0.132, 0.085, 0.069, 0.056, 0.042]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.897 ± 0.371
+ stoi: 0.659 ± 0.125 -&gt; 0.769 ± 0.110
+ sdr: 0.175 ± 0.160 -&gt; 13.013 ± 4.490
+ ssnr: -1.426 ± 4.131 -&gt; 8.237 ± 5.244
+ RMAERS_noisy_mean   
+ [0.25, 0.112, 0.092, 0.085, 0.082, 0.077]
+ RMAERS_enhanced_mean
+ [0.072, 0.085, 0.05, 0.041, 0.033, 0.022]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.115 ± 0.339
+ stoi: 0.715 ± 0.120 -&gt; 0.804 ± 0.106
+ sdr: 5.117 ± 0.104 -&gt; 16.067 ± 3.870
+ ssnr: 1.274 ± 4.656 -&gt; 10.548 ± 5.235
+ RMAERS_noisy_mean   
+ [0.193, 0.048, 0.03, 0.024, 0.021, 0.017]
+ RMAERS_enhanced_mean
+ [0.059, 0.058, 0.034, 0.029, 0.023, 0.015]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.300 ± 0.318
+ stoi: 0.764 ± 0.114 -&gt; 0.832 ± 0.102
+ sdr: 10.098 ± 0.082 -&gt; 19.004 ± 3.337
+ ssnr: 5.138 ± 5.398 -&gt; 12.903 ± 5.090
+ RMAERS_noisy_mean   
+ [0.138, 0.025, 0.012, 0.009, 0.007, 0.004]
+ RMAERS_enhanced_mean
+ [0.047, 0.042, 0.026, 0.023, 0.019, 0.012]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.465 ± 0.291
+ stoi: 0.806 ± 0.107 -&gt; 0.856 ±  0.097
+ sdr: 15.092 ± 0.075 -&gt; 21.852 ±  2.871
+ ssnr: 9.686 ± 5.833 -&gt; 15.204 ± 4.765
+ RMAERS_noisy_mean   
+ [0.094, 0.014, 0.007, 0.005, 0.004, 0.002]
+ RMAERS_enhanced_mean
+ [0.037, 0.033, 0.022, 0.02, 0.017, 0.011]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.608 ± 0.470
+ stoi: 0.597 ± 0.131 -&gt; 0.703 ± 0.121
+ sdr: -4.647 ± 0.297 -&gt; 10.195 ± 5.628
+ ssnr: -3.262 ± 3.412 -&gt; 6.424 ± 5.100
+ RMAERS_noisy_mean   
+ [0.293, 0.236, 0.228, 0.226, 0.224, 0.222]
+ RMAERS_enhanced_mean
+ [0.091, 0.161, 0.101, 0.079, 0.063, 0.047]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.883 ± 0.405
+ stoi: 0.659 ± 0.125 -&gt; 0.752 ± 0.114
+ sdr: 0.175 ± 0.160 -&gt; 13.468 ± 4.769
+ ssnr: -1.426 ± 4.131 -&gt; 8.601 ± 5.219
+ RMAERS_noisy_mean   
+ [0.25, 0.112, 0.092, 0.085, 0.082, 0.077]
+ RMAERS_enhanced_mean
+ [0.075, 0.099, 0.056, 0.044, 0.035, 0.023]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 3.111 ± 0.370
+ stoi: 0.715 ± 0.120 -&gt; 0.790 ± 0.110
+ sdr: 5.117 ± 0.104 -&gt; 16.472 ± 4.089
+ ssnr: 1.274 ± 4.656 -&gt; 10.837 ± 5.272
+ RMAERS_noisy_mean   
+ [0.193, 0.048, 0.03, 0.024, 0.021, 0.017]
+ RMAERS_enhanced_mean
+ [0.061, 0.064, 0.036, 0.029, 0.024, 0.015]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 3.311 ± 0.339
+ stoi: 0.764 ± 0.114 -&gt; 0.822 ± 0.105
+ sdr: 10.098 ± 0.082 -&gt; 19.308 ± 3.507
+ ssnr: 5.138 ± 5.398 -&gt; 13.095 ± 5.150
+ RMAERS_noisy_std    
+ [0.075, 0.021, 0.017, 0.016, 0.016, 0.015]
+ RMAERS_enhanced_std 
+ [0.03, 0.036, 0.033, 0.04, 0.042, 0.054]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.486 ± 0.306
+ stoi: 0.806 ± 0.107 -&gt; 0.850 ± 0.098
+ sdr: 15.092 ± 0.075 -&gt; 22.038 ± 2.967
+ ssnr: 9.686 ± 5.833 -&gt; 15.307 ± 4.834
+ RMAERS_noisy_mean   
+ [0.094, 0.014, 0.007, 0.005, 0.004, 0.002]
+ RMAERS_enhanced_mean
+ [0.039, 0.033, 0.021, 0.019, 0.016, 0.01]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_mag: 0.083, 0.378, 1.986e-10, 23.633
+mixed_mag: 0.141, 0.455, 4.221e-10, 25.397</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean, std, min, max(val set)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.575 ± 0.497
+ stoi: 0.597 ± 0.131 -&gt; 0.700 ± 0.120
+ sdr: -4.647 ± 0.297 -&gt; 10.235 ± 5.732                                                                                                                 ssnr: -3.262 ± 3.412 -&gt; 6.169 ± 4.839
+RMAERS_noisy_mean   
+ [0.293, 0.236, 0.228, 0.226, 0.224, 0.222]
+ RMAERS_enhanced_mean
+ [0.092, 0.164, 0.102, 0.08, 0.064, 0.048]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pclean: [0.87973065 0.06504122 0.01920812 0.00946618 0.00570798 0.02084585]
+pmixed: [0.75703263 0.14091501 0.0408798  0.01893217 0.01065349 0.0315869 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE_IRM_ReLU_MVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.138 ± 0.603
+ stoi: 0.597 ± 0.131 -&gt; 0.661 ± 0.131
+ sdr: -4.647 ± 0.297 -&gt; 7.601 ± 5.771
+ ssnr: -3.262 ± 3.412 -&gt; 4.185 ± 5.329
+ RMAERS_noisy_mean   
+ [0.293, 0.236, 0.228, 0.226, 0.224, 0.222]
+ RMAERS_enhanced_mean
+ [0.109, 0.169, 0.122, 0.098, 0.08, 0.062]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.448 ± 0.531
+ stoi: 0.659 ± 0.125 -&gt; 0.719 ± 0.118
+ sdr: 0.175 ± 0.160 -&gt; 11.200 ± 4.967
+ ssnr: -1.426 ± 4.131 -&gt; 6.730 ± 5.251
+ RMAERS_noisy_mean   
+ [0.25, 0.112, 0.092, 0.085, 0.082, 0.077]
+ RMAERS_enhanced_mean
+ [0.088, 0.1, 0.063, 0.049, 0.038, 0.027]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 2.942 ± 0.421
+ stoi: 0.764 ± 0.114 -&gt; 0.792 ± 0.109
+ sdr: 10.098 ± 0.082 -&gt; 17.728 ± 3.595
+ ssnr: 5.138 ± 5.398 -&gt; 11.842 ± 4.931
+ RMAERS_noisy_mean   
+ [0.138, 0.025, 0.012, 0.009, 0.007, 0.004]
+ RMAERS_enhanced_mean
+ [0.056, 0.043, 0.025, 0.02, 0.016, 0.009]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 2.709 ± 0.476
+ stoi: 0.715 ± 0.120 -&gt; 0.760 ± 0.113
+ sdr: 5.117 ± 0.104 -&gt; 14.527 ± 4.259
+ ssnr: 1.274 ± 4.656 -&gt; 9.282 ± 5.158
+ RMAERS_noisy_mean   
+ [0.193, 0.048, 0.03, 0.024, 0.021, 0.017]
+ RMAERS_enhanced_mean
+ [0.071, 0.064, 0.037, 0.029, 0.023, 0.014]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.153 ± 0.363
+ stoi: 0.806 ± 0.107 -&gt; 0.819 ± 0.104
+ sdr: 15.092 ± 0.075 -&gt; 20.834 ± 3.014
+ ssnr: 9.686 ± 5.833 -&gt; 14.251 ± 4.521
+ RMAERS_noisy_mean   
+ [0.094, 0.014, 0.007, 0.005, 0.004, 0.002]
+ RMAERS_enhanced_mean
+ [0.045, 0.032, 0.019, 0.016, 0.012, 0.007]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE_PSM_ReLU_MVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.179 ± 0.462
+ stoi: 0.597 ± 0.131 -&gt; 0.632 ± 0.133
+ sdr: -4.647 ± 0.297 -&gt; 4.122 ± 5.660
+ ssnr: -3.262 ± 3.412 -&gt; -1.101 ± 4.935
+ RMAERS_noisy_mean    [0.293, 0.236, 0.228, 0.226, 0.224, 0.222]
+ RMAERS_enhanced_mean [0.27, 0.141, 0.106, 0.09, 0.075, 0.059]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.424 ± 0.416
+ stoi: 0.659 ± 0.125 -&gt; 0.691 ± 0.126
+ sdr: 0.175 ± 0.160 -&gt; 7.873 ± 5.021
+ ssnr: -1.426 ± 4.131 -&gt; 0.935 ± 5.047
+ RMAERS_noisy_mean    [0.25, 0.112, 0.092, 0.085, 0.082, 0.077]
+ RMAERS_enhanced_mean [0.218, 0.093, 0.061, 0.049, 0.039, 0.027]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 2.637 ± 0.378
+ stoi: 0.715 ± 0.120 -&gt; 0.737 ± 0.119
+ sdr: 5.117 ± 0.104 -&gt; 11.138 ± 4.371
+ ssnr: 1.274 ± 4.656 -&gt; 3.012 ± 4.940
+ RMAERS_noisy_mean    [0.193, 0.048, 0.03, 0.024, 0.021, 0.017]
+ RMAERS_enhanced_mean [0.177, 0.06, 0.036, 0.028, 0.023, 0.014]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 2.820 ± 0.345
+ stoi: 0.764 ± 0.114 -&gt; 0.771 ± 0.113
+ sdr: 10.098 ± 0.082 -&gt; 14.028 ± 3.797
+ ssnr: 5.138 ± 5.398 -&gt; 5.125 ± 4.738
+ RMAERS_noisy_mean    [0.138, 0.025, 0.012, 0.009, 0.007, 0.004]
+ RMAERS_enhanced_mean [0.146, 0.039, 0.023, 0.019, 0.015, 0.009]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 2.981 ± 0.314
+ stoi: 0.806 ± 0.107 -&gt; 0.796 ± 0.108
+ sdr: 15.092 ± 0.075 -&gt; 16.625 ± 3.446
+ ssnr: 9.686 ± 5.833 -&gt; 7.319 ± 4.601
+ RMAERS_noisy_mean    [0.094, 0.014, 0.007, 0.005, 0.004, 0.002]
+ RMAERS_enhanced_mean [0.121, 0.028, 0.018, 0.015, 0.013, 0.009]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE_IRM_Real_MVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.259 ± 0.511   
+ stoi: 0.597 ± 0.131 -&gt; 0.668 ± 0.124   
+ sdr: -4.647 ± 0.297 -&gt; 7.020 ± 5.462   
+ ssnr: -3.262 ± 3.412 -&gt; 3.247 ± 4.955  
+ RMAERS_noisy_mean   
+ [0.293, 0.236, 0.228, 0.226, 0.224, 0.222]
+ RMAERS_enhanced_mean
+ [0.12, 0.166, 0.12, 0.097, 0.08, 0.063]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 2.768 ± 0.434
+ stoi: 0.715 ± 0.120 -&gt; 0.764 ± 0.110
+ sdr: 5.117 ± 0.104 -&gt; 14.168 ± 4.249
+ ssnr: 1.274 ± 4.656 -&gt; 8.746 ± 4.987
+ RMAERS_noisy_mean   
+ [0.193, 0.048, 0.03, 0.024, 0.021, 0.017]
+ RMAERS_enhanced_mean
+ [0.073, 0.061, 0.036, 0.028, 0.023, 0.015]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 3.177 ± 0.346
+ stoi: 0.806 ± 0.107 -&gt; 0.826 ± 0.100
+ sdr: 15.092 ± 0.075 -&gt; 20.651 ± 3.173
+ ssnr: 9.686 ± 5.833 -&gt; 14.054 ± 4.485
+ RMAERS_noisy_mean  
+  [0.094, 0.014, 0.007, 0.005, 0.004, 0.002]
+ RMAERS_enhanced_mean
+ [0.045, 0.029, 0.018, 0.015, 0.012, 0.007]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE_PSM_Real_MVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(-5) test result &gt;
+ pesq: 1.751 ± 0.511 -&gt; 2.159 ± 0.441   
+ stoi: 0.597 ± 0.131 -&gt; 0.630 ± 0.131   
+ sdr: -4.647 ± 0.297 -&gt; 3.738 ± 5.362   
+ ssnr: -3.262 ± 3.412 -&gt; -1.482 ± 4.164 
+ RMAERS_noisy_mean   
+ [0.293, 0.236, 0.228, 0.226, 0.224, 0.222]
+ RMAERS_enhanced_mean
+ [0.274, 0.142, 0.108, 0.092, 0.077, 0.061]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(5) test result &gt;
+ pesq: 2.263 ± 0.443 -&gt; 2.624 ± 0.358
+ stoi: 0.715 ± 0.120 -&gt; 0.735 ± 0.118
+ sdr: 5.117 ± 0.104 -&gt; 10.863 ± 4.290
+ ssnr: 1.274 ± 4.656 -&gt; 2.723 ± 4.496
+ RMAERS_noisy_mean  
+ [0.193, 0.048, 0.03, 0.024, 0.021, 0.017]
+ RMAERS_enhanced_mean
+ [0.18, 0.062, 0.037, 0.03, 0.024, 0.015]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR(10) test result &gt;
+ pesq: 2.538 ± 0.407 -&gt; 2.808 ± 0.330
+ stoi: 0.764 ± 0.114 -&gt; 0.769 ± 0.113
+ sdr: 10.098 ± 0.082 -&gt; 13.738 ± 3.813
+ ssnr: 5.138 ± 5.398 -&gt; 4.866 ± 4.486
+ RMAERS_noisy_mean   
+ [0.138, 0.025, 0.012, 0.009, 0.007, 0.004]
+ RMAERS_enhanced_mean
+ [0.148, 0.042, 0.025, 0.02, 0.017, 0.01]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SNR(5) test result &gt;
  pesq: 2.263 ± 0.443 -&gt; 2.885 ± 0.343
  stoi: 0.715 ± 0.120 -&gt; 0.771 ± 0.109
@@ -1175,27 +1581,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SNR(0) test result &gt;
+ pesq: 1.991 ± 0.478 -&gt; 2.533 ± 0.466   
+ stoi: 0.659 ± 0.125 -&gt; 0.723 ± 0.115   
+ sdr: 0.175 ± 0.160 -&gt; 10.792 ± 4.832
+ ssnr: -1.426 ± 4.131 -&gt; 6.013 ± 5.000
+ RMAERS_noisy_mean   
+ [0.25, 0.112, 0.092, 0.085, 0.082, 0.077]
+ RMAERS_enhanced_mean
+ [0.093, 0.098, 0.061, 0.048, 0.039, 0.027]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SNR(10) test result &gt;
- pesq: 2.538 ± 0.407 -&gt; 3.068 ± 0.325   
- stoi: 0.764 ± 0.114 -&gt; 0.801 ± 0.104   
- sdr: 10.098 ± 0.082 -&gt; 18.355 ± 3.424  
- ssnr: 5.138 ± 5.398 -&gt; 12.330 ± 4.912  
+ pesq: 2.538 ± 0.407 -&gt; 2.982 ± 0.390
+ stoi: 0.764 ± 0.114 -&gt; 0.798 ± 0.106
+ sdr: 10.098 ± 0.082 -&gt; 17.421 ± 3.707
+ ssnr: 5.138 ± 5.398 -&gt; 11.456 ± 4.812
  RMAERS_noisy_mean   
  [0.138, 0.025, 0.012, 0.009, 0.007, 0.004]
  RMAERS_enhanced_mean
- [0.057, 0.032, 0.015, 0.011, 0.009, 0.005]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(15) test result &gt;
- pesq: 2.814 ± 0.371 -&gt; 3.233 ± 0.312   
- stoi: 0.806 ± 0.107 -&gt; 0.826 ± 0.099   
- sdr: 15.092 ± 0.075 -&gt; 21.365 ± 2.927  
- ssnr: 9.686 ± 5.833 -&gt; 14.794 ± 4.529  
- RMAERS_noisy_mean   
- [0.094, 0.014, 0.007, 0.005, 0.004, 0.002]
- RMAERS_enhanced_mean
- [0.045, 0.022, 0.011, 0.009, 0.007, 0.004]</t>
+ [0.058, 0.04, 0.023, 0.019, 0.016, 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1211,177 +1617,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SNR(15) test result &gt;
+ pesq: 2.814 ± 0.371 -&gt; 2.968 ± 0.305
+ stoi: 0.806 ± 0.107 -&gt; 0.796 ± 0.108
+ sdr: 15.092 ± 0.075 -&gt; 16.248 ± 3.546
+ ssnr: 9.686 ± 5.833 -&gt; 6.995 ± 4.441
+ RMAERS_noisy_mean   
+ [0.094, 0.014, 0.007, 0.005, 0.004, 0.002]
+ RMAERS_enhanced_mean
+ [0.124, 0.031, 0.02, 0.017, 0.015, 0.009]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SNR(0) test result &gt;
- pesq: 1.991 ± 0.478 -&gt; 2.616 ± 0.403   
- stoi: 0.659 ± 0.125 -&gt; 0.723 ± 0.115   
- sdr: 0.175 ± 0.160 -&gt; 12.449 ± 4.894   
- ssnr: -1.426 ± 4.131 -&gt; 7.161 ± 4.613  
+ pesq: 1.991 ± 0.478 -&gt; 2.409 ± 0.393   
+ stoi: 0.659 ± 0.125 -&gt; 0.689 ± 0.124   
+ sdr: 0.175 ± 0.160 -&gt; 7.558 ± 4.848
+ ssnr: -1.426 ± 4.131 -&gt; 0.598 ± 4.421
  RMAERS_noisy_mean   
  [0.25, 0.112, 0.092, 0.085, 0.082, 0.077]
  RMAERS_enhanced_mean
- [0.09, 0.099, 0.052, 0.039, 0.03, 0.021]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(5) test result &gt;
- pesq: 2.263 ± 0.443 -&gt; 2.835 ± 0.371   
- stoi: 0.715 ± 0.120 -&gt; 0.761 ± 0.110   
- sdr: 5.117 ± 0.104 -&gt; 15.569 ± 4.226   
- ssnr: 1.274 ± 4.656 -&gt; 9.553 ± 4.598   
- RMAERS_noisy_mean   
- [0.193, 0.048, 0.03, 0.024, 0.021, 0.017]
- RMAERS_enhanced_mean
- [0.073, 0.061, 0.029, 0.022, 0.017, 0.01]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(10) test result &gt;
- pesq: 2.538 ± 0.407 -&gt; 3.027 ± 0.346   
- stoi: 0.764 ± 0.114 -&gt; 0.792 ± 0.106   
- sdr: 10.098 ± 0.082 -&gt; 18.458 ± 3.641  
- ssnr: 5.138 ± 5.398 -&gt; 11.787 ± 4.547  
- RMAERS_noisy_mean   
- [0.138, 0.025, 0.012, 0.009, 0.007, 0.004]
- RMAERS_enhanced_mean
- [0.059, 0.041, 0.019, 0.014, 0.011, 0.006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(15) test result &gt;
- pesq: 2.814 ± 0.371 -&gt; 3.193 ± 0.325
- stoi: 0.806 ± 0.107 -&gt; 0.819 ± 0.100
- sdr: 15.092 ± 0.075 -&gt; 21.279 ± 3.095
- ssnr: 9.686 ± 5.833 -&gt; 13.801 ± 4.338
- RMAERS_noisy_mean   
- [0.094, 0.014, 0.007, 0.005, 0.004, 0.002]
- RMAERS_enhanced_mean
- [0.048, 0.031, 0.014, 0.011, 0.009, 0.005]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(-5) test result &gt;
- pesq: 1.751 ± 0.511 -&gt; 2.630 ± 0.431
- stoi: 0.597 ± 0.131 -&gt; 0.722 ± 0.116
- sdr: -4.647 ± 0.297 -&gt; 9.679 ± 5.289                                                                                                                  ssnr: -3.262 ± 3.412 -&gt; 5.902 ± 5.210
- RMAERS_noisy_mean   
- [0.293, 0.236, 0.228, 0.226, 0.224, 0.222]
- RMAERS_enhanced_mean
- [0.091, 0.132, 0.085, 0.069, 0.056, 0.042]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(0) test result &gt;
- pesq: 1.991 ± 0.478 -&gt; 2.897 ± 0.371
- stoi: 0.659 ± 0.125 -&gt; 0.769 ± 0.110
- sdr: 0.175 ± 0.160 -&gt; 13.013 ± 4.490
- ssnr: -1.426 ± 4.131 -&gt; 8.237 ± 5.244
- RMAERS_noisy_mean   
- [0.25, 0.112, 0.092, 0.085, 0.082, 0.077]
- RMAERS_enhanced_mean
- [0.072, 0.085, 0.05, 0.041, 0.033, 0.022]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(5) test result &gt;
- pesq: 2.263 ± 0.443 -&gt; 3.115 ± 0.339
- stoi: 0.715 ± 0.120 -&gt; 0.804 ± 0.106
- sdr: 5.117 ± 0.104 -&gt; 16.067 ± 3.870
- ssnr: 1.274 ± 4.656 -&gt; 10.548 ± 5.235
- RMAERS_noisy_mean   
- [0.193, 0.048, 0.03, 0.024, 0.021, 0.017]
- RMAERS_enhanced_mean
- [0.059, 0.058, 0.034, 0.029, 0.023, 0.015]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(10) test result &gt;
- pesq: 2.538 ± 0.407 -&gt; 3.300 ± 0.318
- stoi: 0.764 ± 0.114 -&gt; 0.832 ± 0.102
- sdr: 10.098 ± 0.082 -&gt; 19.004 ± 3.337
- ssnr: 5.138 ± 5.398 -&gt; 12.903 ± 5.090
- RMAERS_noisy_mean   
- [0.138, 0.025, 0.012, 0.009, 0.007, 0.004]
- RMAERS_enhanced_mean
- [0.047, 0.042, 0.026, 0.023, 0.019, 0.012]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(15) test result &gt;
- pesq: 2.814 ± 0.371 -&gt; 3.465 ± 0.291
- stoi: 0.806 ± 0.107 -&gt; 0.856 ±  0.097
- sdr: 15.092 ± 0.075 -&gt; 21.852 ±  2.871
- ssnr: 9.686 ± 5.833 -&gt; 15.204 ± 4.765
- RMAERS_noisy_mean   
- [0.094, 0.014, 0.007, 0.005, 0.004, 0.002]
- RMAERS_enhanced_mean
- [0.037, 0.033, 0.022, 0.02, 0.017, 0.011]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(-5) test result &gt;
- pesq: 1.751 ± 0.511 -&gt; 2.608 ± 0.470
- stoi: 0.597 ± 0.131 -&gt; 0.703 ± 0.121
- sdr: -4.647 ± 0.297 -&gt; 10.195 ± 5.628
- ssnr: -3.262 ± 3.412 -&gt; 6.424 ± 5.100
- RMAERS_noisy_mean   
- [0.293, 0.236, 0.228, 0.226, 0.224, 0.222]
- RMAERS_enhanced_mean
- [0.091, 0.161, 0.101, 0.079, 0.063, 0.047]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(0) test result &gt;
- pesq: 1.991 ± 0.478 -&gt; 2.883 ± 0.405
- stoi: 0.659 ± 0.125 -&gt; 0.752 ± 0.114
- sdr: 0.175 ± 0.160 -&gt; 13.468 ± 4.769
- ssnr: -1.426 ± 4.131 -&gt; 8.601 ± 5.219
- RMAERS_noisy_mean   
- [0.25, 0.112, 0.092, 0.085, 0.082, 0.077]
- RMAERS_enhanced_mean
- [0.075, 0.099, 0.056, 0.044, 0.035, 0.023]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(5) test result &gt;
- pesq: 2.263 ± 0.443 -&gt; 3.111 ± 0.370
- stoi: 0.715 ± 0.120 -&gt; 0.790 ± 0.110
- sdr: 5.117 ± 0.104 -&gt; 16.472 ± 4.089
- ssnr: 1.274 ± 4.656 -&gt; 10.837 ± 5.272
- RMAERS_noisy_mean   
- [0.193, 0.048, 0.03, 0.024, 0.021, 0.017]
- RMAERS_enhanced_mean
- [0.061, 0.064, 0.036, 0.029, 0.024, 0.015]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(10) test result &gt;
- pesq: 2.538 ± 0.407 -&gt; 3.311 ± 0.339
- stoi: 0.764 ± 0.114 -&gt; 0.822 ± 0.105
- sdr: 10.098 ± 0.082 -&gt; 19.308 ± 3.507
- ssnr: 5.138 ± 5.398 -&gt; 13.095 ± 5.150
- RMAERS_noisy_std    
- [0.075, 0.021, 0.017, 0.016, 0.016, 0.015]
- RMAERS_enhanced_std 
- [0.03, 0.036, 0.033, 0.04, 0.042, 0.054]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNR(15) test result &gt;
- pesq: 2.814 ± 0.371 -&gt; 3.486 ± 0.306
- stoi: 0.806 ± 0.107 -&gt; 0.850 ± 0.098
- sdr: 15.092 ± 0.075 -&gt; 22.038 ± 2.967
- ssnr: 9.686 ± 5.833 -&gt; 15.307 ± 4.834
- RMAERS_noisy_mean   
- [0.094, 0.014, 0.007, 0.005, 0.004, 0.002]
- RMAERS_enhanced_mean
- [0.039, 0.033, 0.021, 0.019, 0.016, 0.01]</t>
+ [0.221, 0.094, 0.063, 0.05, 0.04, 0.027]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -1552,9 +1815,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1563,12 +1823,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1580,6 +1834,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1862,11 +2125,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1875,48 +2138,62 @@
     <col min="2" max="6" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>145</v>
-      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1926,24 +2203,24 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1955,22 +2232,22 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1982,22 +2259,22 @@
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2007,24 +2284,24 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2036,22 +2313,22 @@
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2063,22 +2340,22 @@
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2088,24 +2365,24 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2115,80 +2392,78 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2199,136 +2474,156 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2336,68 +2631,68 @@
     </row>
     <row r="40" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2405,22 +2700,22 @@
     </row>
     <row r="46" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2428,45 +2723,137 @@
     </row>
     <row r="48" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="D58" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>103</v>
+      <c r="F58" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2497,185 +2884,185 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
-        <v>113</v>
-      </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="20"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="21"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="L8" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z8" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="26" t="s">
+      <c r="F9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="26" t="s">
+      <c r="M9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y8" s="26" t="s">
+      <c r="T9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Z8" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="7" t="s">
+      <c r="AA9" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="AB9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="AC9" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="AD9" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB9" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD9" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -2683,10 +3070,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
@@ -2707,7 +3094,7 @@
         <v>7.3200000000000006E-14</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K10" s="15">
         <v>0</v>
@@ -2728,7 +3115,7 @@
         <v>3.67E-13</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R10" s="15">
         <v>0</v>
@@ -2749,7 +3136,7 @@
         <v>1.58E-3</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y10" s="15">
         <v>0</v>
@@ -2775,10 +3162,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -2799,7 +3186,7 @@
         <v>2.9100000000000002E-13</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K11" s="16">
         <v>0</v>
@@ -2820,7 +3207,7 @@
         <v>2.76E-9</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R11" s="16">
         <v>0</v>
@@ -2841,7 +3228,7 @@
         <v>3.78E-2</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y11" s="16">
         <v>0</v>
@@ -2864,13 +3251,13 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
@@ -2891,7 +3278,7 @@
         <v>6.8200000000000002E-14</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K12" s="16">
         <v>0</v>
@@ -2912,7 +3299,7 @@
         <v>6.4400000000000001E-9</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R12" s="16">
         <v>0</v>
@@ -2933,7 +3320,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y12" s="16">
         <v>0</v>
@@ -2956,13 +3343,13 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -2983,7 +3370,7 @@
         <v>2.8100000000000001E-14</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" s="16">
         <v>0</v>
@@ -3004,7 +3391,7 @@
         <v>4.8300000000000002E-8</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R13" s="16">
         <v>0</v>
@@ -3025,7 +3412,7 @@
         <v>2.0100000000000001E-4</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y13" s="16">
         <v>0</v>
@@ -3912,6 +4299,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="X7:AD7"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -3924,12 +4317,6 @@
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:W8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
